--- a/biology/Zoologie/Austrochernes_australiensis/Austrochernes_australiensis.xlsx
+++ b/biology/Zoologie/Austrochernes_australiensis/Austrochernes_australiensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Austrochernes australiensis est une espèce de pseudoscorpions de la famille des Chernetidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre en Nouvelle-Galles du Sud ou au Queensland[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Nouvelle-Galles du Sud ou au Queensland.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 4,16 à 4,42 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 4,16 à 4,42 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de australi[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, l'Australie.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>With, 1905 : On Chelonethi, chiefly from the Australian region, in the collection of the British Museum, with observations on the "coxal sac" and on some cases of abnormal segmentation. Annals and Magazine of Natural History, sér. 7, vol. 15, p. 94-143 (texte intégral).</t>
         </is>
